--- a/main/ig/StructureDefinition-fr-lm-group-de-questionnaires-devaluation.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-group-de-questionnaires-devaluation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T13:49:34+00:00</t>
+    <t>2026-01-19T11:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-group-de-questionnaires-devaluation.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-group-de-questionnaires-devaluation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T11:08:31+00:00</t>
+    <t>2026-01-19T13:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-group-de-questionnaires-devaluation.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-group-de-questionnaires-devaluation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T13:54:24+00:00</t>
+    <t>2026-01-23T08:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-group-de-questionnaires-devaluation.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-group-de-questionnaires-devaluation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-23T08:28:04+00:00</t>
+    <t>2026-01-28T14:36:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-group-de-questionnaires-devaluation.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-group-de-questionnaires-devaluation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="94">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T14:36:08+00:00</t>
+    <t>2026-02-05T08:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -291,12 +291,6 @@
   </si>
   <si>
     <t>Horodatage de l'entrée</t>
-  </si>
-  <si>
-    <t>fr-lm-group-de-questionnaires-devaluation.valeur</t>
-  </si>
-  <si>
-    <t>Valeur de l'observation</t>
   </si>
   <si>
     <t>fr-lm-group-de-questionnaires-devaluation.evaluation</t>
@@ -611,7 +605,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1283,7 +1277,7 @@
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -1295,13 +1289,13 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1358,112 +1352,12 @@
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
         <v>73</v>
       </c>
     </row>
